--- a/02_MasterWifoMannheim/99_Backup/Course139.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course139.xlsx
@@ -1,130 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2B59D2BFD32051265F59281159CF30F54E31FABE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FFAB8A6-D4D6-42F8-907C-42962A59210F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>MKT 560 Services Marketing</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Students get an insight into and understand current developments and marketing-specific characteristics of the services industry. be able to apply and adapt their knowledge of marketing strategies, concepts and instruments to specific problems in services marketing context. The lecture is supplemented through case study discussions.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per weekSelf-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Florian Kraus</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
-  </si>
-  <si>
-    <t>Marketing and Sales (MKT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MKT 560 Services Marketing</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Students get an insight into and understand current developments and marketing-specific characteristics of the services industry. be able to apply and adapt their knowledge of marketing strategies, concepts and instruments to specific problems in services marketing context. The lecture is supplemented through case study discussions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Students get an insight into and understand current developments and marketing-specific characteristics of the services industry. be able to apply and adapt their knowledge of marketing strategies, concepts and instruments to specific problems in services marketing context. The lecture is supplemented through case study discussions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marketing and Sales (MKT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per weekSelf-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Florian Kraus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf.</t>
+        </is>
       </c>
     </row>
   </sheetData>
